--- a/biology/Médecine/Papillome_des_plexus_choroïdes/Papillome_des_plexus_choroïdes.xlsx
+++ b/biology/Médecine/Papillome_des_plexus_choroïdes/Papillome_des_plexus_choroïdes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Papillome_des_plexus_choro%C3%AFdes</t>
+          <t>Papillome_des_plexus_choroïdes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les papillomes des plexus choroïdes sont des tumeurs cérébrales bénignes et rares[1],[2].
-La caractéristique essentielle des papillomes choroïdiens est d'être localisés dans la cavité de l'un des ventricules du cerveau. Dès lors, en grossissant, et selon l'âge de survenue, ils sont soit associés à une dilatation ventriculaire chez l'enfant facteur d'hydrocéphalie, soit associés à une hypertension intracrânienne chez l'adolescent et l'adulte[1].
-Ils surviennent plus souvent dans le quatrième ventricule chez l'adulte voire dans le troisième ventricule ou dans l’angle ponto-cérébelleux[1]; et plutôt dans l'un des ventricules latéraux chez l'enfant, mais peuvent apparaître parfois dans le parenchyme cérébral[2].
-Les papillomes des plexus choroïdes représentent 1 % de l'ensemble des tumeurs cérébrales mais il s’agit essentiellement d’une tumeur de l’enfant[2]. Le développement des techniques d'explorations neuroradiologiques telles que le scanner et l'imagerie par résonance magnétique a considérablement simplifié et facilité le diagnostic. L’exérèse chirurgicale totale constitue le traitement préférentiel du papillome dont les meilleurs résultats sont obtenus chez les jeunes enfants pour lesquels la tumeur a pu être enlevée en totalité et dont le diagnostic a été précoce[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les papillomes des plexus choroïdes sont des tumeurs cérébrales bénignes et rares,.
+La caractéristique essentielle des papillomes choroïdiens est d'être localisés dans la cavité de l'un des ventricules du cerveau. Dès lors, en grossissant, et selon l'âge de survenue, ils sont soit associés à une dilatation ventriculaire chez l'enfant facteur d'hydrocéphalie, soit associés à une hypertension intracrânienne chez l'adolescent et l'adulte.
+Ils surviennent plus souvent dans le quatrième ventricule chez l'adulte voire dans le troisième ventricule ou dans l’angle ponto-cérébelleux; et plutôt dans l'un des ventricules latéraux chez l'enfant, mais peuvent apparaître parfois dans le parenchyme cérébral.
+Les papillomes des plexus choroïdes représentent 1 % de l'ensemble des tumeurs cérébrales mais il s’agit essentiellement d’une tumeur de l’enfant. Le développement des techniques d'explorations neuroradiologiques telles que le scanner et l'imagerie par résonance magnétique a considérablement simplifié et facilité le diagnostic. L’exérèse chirurgicale totale constitue le traitement préférentiel du papillome dont les meilleurs résultats sont obtenus chez les jeunes enfants pour lesquels la tumeur a pu être enlevée en totalité et dont le diagnostic a été précoce. 
 </t>
         </is>
       </c>
